--- a/src/test/resources/LoginList.xlsx
+++ b/src/test/resources/LoginList.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\iterTools\Batch2_TestNG_Selenium_\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\Batch2_TestNG_Selenium_\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E1D1E-F236-4137-8F46-F7FF942BBA0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25E3EE-507C-49A6-A82A-DF140CC63D0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QaTeam1" sheetId="1" r:id="rId1"/>
     <sheet name="QaTeam2" sheetId="2" r:id="rId2"/>
-    <sheet name="QaTeam3" sheetId="3" r:id="rId3"/>
+    <sheet name="QaTeam3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="18">
   <si>
     <t>Your Name</t>
   </si>
@@ -38,19 +38,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>rosa@test.com</t>
-  </si>
-  <si>
     <t>Test123456</t>
-  </si>
-  <si>
-    <t>Mansimmo</t>
-  </si>
-  <si>
-    <t>Ramanzi@test.com</t>
   </si>
   <si>
     <t>Jhon Nash</t>
@@ -453,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -480,24 +468,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -508,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,188 +507,140 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D7C802F7-2716-4A84-A3E7-E0E705A97194}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{95EA960D-2FDC-4AFC-B9A0-97947D048712}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{36141528-4D09-4281-A1E7-F6B5349E3F0C}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{BE9AEEAA-5E5E-4AEC-9E21-7F547D271587}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{F0C29D30-CB2E-48F0-9A5A-D911E6631F42}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{7D50FF1D-C867-4B6E-9264-1D2F39211E6A}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{39BCA924-F47E-414F-879D-4A7664886CC9}"/>
-    <hyperlink ref="B17" r:id="rId8" xr:uid="{27CC31EB-2C09-48A8-AB52-23E323A5A614}"/>
-    <hyperlink ref="B18" r:id="rId9" xr:uid="{50DFDB06-6D89-492D-A800-0DDF1D794590}"/>
-    <hyperlink ref="B19" r:id="rId10" xr:uid="{0EF57693-495E-4B80-AF86-6C1F80959E2E}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{36141528-4D09-4281-A1E7-F6B5349E3F0C}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{BE9AEEAA-5E5E-4AEC-9E21-7F547D271587}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{F0C29D30-CB2E-48F0-9A5A-D911E6631F42}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{27CC31EB-2C09-48A8-AB52-23E323A5A614}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{50DFDB06-6D89-492D-A800-0DDF1D794590}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{0EF57693-495E-4B80-AF86-6C1F80959E2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8900292A-4B57-4605-87E6-DEC02E7248D2}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,196 +663,92 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2747B4C5-B7B6-4BDF-BDED-8B5613A7B849}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{C55A0BD1-F18A-4218-838E-6F987943C656}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{F6E37AB4-6584-4211-813A-FB89A59B50AA}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{C69417EE-24B5-4BE4-BBCF-A36152616A8D}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{0AC89129-D82B-4256-B964-F2651F70C7B9}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{01B1FA42-0B03-4875-A8AE-831586399122}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{178DE3A6-15E2-40A3-B4B0-8ED98B27DEE6}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{EE9F87EC-B84A-47E7-A93D-D45C770E3A55}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{DE758B2F-B535-4AD3-B5A5-F0B4F08A06C7}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{B79E9DE3-4E5C-4EED-89B8-638F41E1C77A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D8DB64-3C2D-4923-B33A-9078A63670CF}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F758EF-2A94-4F19-9427-F60300E0368B}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -928,110 +764,75 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
+      <c r="A5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
+      <c r="A7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7C752E4A-B9C6-485B-BA33-A742D29E64AE}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{35C09A7B-D3D8-4A9C-A1BC-B50E0CB82EBB}"/>
-    <hyperlink ref="A8" r:id="rId3" xr:uid="{4D262BE4-5E78-42BF-81CF-011A36FC497C}"/>
-    <hyperlink ref="A9" r:id="rId4" xr:uid="{130743BF-5E7A-4794-9A97-481B6DA957D8}"/>
-    <hyperlink ref="A10" r:id="rId5" xr:uid="{16AE8D42-D171-4F1D-9B4B-24FBB227417C}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{F9A446F9-CCB6-4610-97D1-29D0AFA675E1}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{6E0FE0DA-D42E-4ED3-9751-341E85580622}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{3156C1A2-ABF9-45A4-9ADA-4F1BE0AD79C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
